--- a/biology/Microbiologie/Phormidiaceae/Phormidiaceae.xlsx
+++ b/biology/Microbiologie/Phormidiaceae/Phormidiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Phormidiaceae sont une famille de cyanobactéries[2] de l'ordre des Oscillatoriales. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Phormidiaceae sont une famille de cyanobactéries de l'ordre des Oscillatoriales. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (2 novembre 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (2 novembre 2019) :
 genre Ammassolinea P.Hasler, P.Dvorák, A.Poulücková &amp; D.A.Casamatta, 2014
 genre Ammatoidea West &amp; G.S.West, 1897
 genre Ancylothrix M.D.Martins &amp; L.H.Z.Branco, 2016
@@ -568,7 +582,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Konstantinos Th. Anagnostidis et Jiří Komárek, « Modern approach to the classification system of cyanophytes. 3 - Oscillatoriales », Algological studies, vol. 50-53,‎ 1er janvier 1988, p. 327-472 (ISSN 0342-1120)</t>
         </is>
